--- a/template/swtz_ty.xlsx
+++ b/template/swtz_ty.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\python\election-s-prediction\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\election-s-prediction\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48CF361-D18D-461B-8760-C9B311EB71D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57DDE42-3F08-46A7-8509-5DEC223CBF4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16635" yWindow="4050" windowWidth="30945" windowHeight="15015" xr2:uid="{6EE71059-EEF6-2A4B-B680-254874A089E6}"/>
+    <workbookView xWindow="5745" yWindow="10860" windowWidth="23850" windowHeight="11385" xr2:uid="{6EE71059-EEF6-2A4B-B680-254874A089E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +48,14 @@
   </si>
   <si>
     <t>联系电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -144,7 +144,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -461,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3DB2E6C-5F26-1846-B2D9-BF857E759B07}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -474,7 +474,7 @@
     <col min="6" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -482,8 +482,10 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -498,11 +500,17 @@
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
